--- a/experiment_results/backup_result/worst_case/Elevator/2wise/0.5_worst_case.xlsx
+++ b/experiment_results/backup_result/worst_case/Elevator/2wise/0.5_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="25">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -486,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -518,7 +520,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -550,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -582,7 +584,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -614,7 +616,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -646,7 +648,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -678,7 +680,7 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -710,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -742,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -774,7 +776,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -806,7 +808,7 @@
         <v>73</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -838,7 +840,7 @@
         <v>125</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -870,7 +872,7 @@
         <v>85</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -902,7 +904,7 @@
         <v>53</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -934,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1011,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1043,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1075,7 +1077,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -1107,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1139,7 +1141,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -1171,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1203,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1235,7 +1237,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1267,7 +1269,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -1299,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1331,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1363,7 +1365,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1395,7 +1397,7 @@
         <v>68</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1427,7 +1429,7 @@
         <v>33</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -1459,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1536,7 +1538,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1568,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1600,7 +1602,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -1632,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1664,7 +1666,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -1696,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1728,7 +1730,7 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1760,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1792,7 +1794,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -1815,16 +1817,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1856,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1888,7 +1890,7 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1920,7 +1922,7 @@
         <v>67</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -1952,7 +1954,7 @@
         <v>34</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -1984,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2061,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2093,7 +2095,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2116,16 +2118,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>298</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>298</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -2157,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>110</v>
@@ -2180,16 +2182,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>299</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>299</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -2221,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2253,7 +2255,7 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2276,16 +2278,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2308,16 +2310,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -2340,16 +2342,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>311</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -2381,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2404,16 +2406,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2445,7 +2447,7 @@
         <v>68</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -2477,7 +2479,7 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -2509,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2580,13 +2582,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2618,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2641,16 +2643,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -2676,13 +2678,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>110</v>
@@ -2705,16 +2707,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -2746,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2772,13 +2774,13 @@
         <v>29</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>27</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2804,13 +2806,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2833,16 +2835,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -2865,16 +2867,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -2906,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2938,7 +2940,7 @@
         <v>62</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2970,7 +2972,7 @@
         <v>68</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>15</v>
@@ -3002,7 +3004,7 @@
         <v>38</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3028,13 +3030,13 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -3111,7 +3113,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3143,7 +3145,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3175,7 +3177,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -3207,7 +3209,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3239,7 +3241,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -3271,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3303,7 +3305,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -3335,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3367,7 +3369,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -3399,7 +3401,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3431,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3463,7 +3465,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -3495,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -3527,7 +3529,7 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -3559,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -3636,7 +3638,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3668,7 +3670,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3700,7 +3702,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -3732,7 +3734,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3764,7 +3766,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -3796,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3828,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -3860,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3892,7 +3894,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -3924,7 +3926,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3956,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3988,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4020,7 +4022,7 @@
         <v>32</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -4052,7 +4054,7 @@
         <v>18</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -4084,10 +4086,1060 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>69</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>404</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>371</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>371</v>
+      </c>
+      <c r="L4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>415</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>43</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>404</v>
+      </c>
+      <c r="L6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>371</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>124</v>
+      </c>
+      <c r="G8">
+        <v>39</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>404</v>
+      </c>
+      <c r="L8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>158</v>
+      </c>
+      <c r="G9">
+        <v>36</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>396</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>371</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>388</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>207</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>388</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>199</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>388</v>
+      </c>
+      <c r="L13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>280</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>388</v>
+      </c>
+      <c r="L14">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>282</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>388</v>
+      </c>
+      <c r="L15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <v>404</v>
+      </c>
+      <c r="L16">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>167</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>443</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>288</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>49</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>436</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>124</v>
+      </c>
+      <c r="G8">
+        <v>216</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>84</v>
+      </c>
+      <c r="E9">
+        <v>158</v>
+      </c>
+      <c r="G9">
+        <v>271</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>444</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>436</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>207</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>22</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>194</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>194</v>
+      </c>
+      <c r="E13">
+        <v>199</v>
+      </c>
+      <c r="G13">
+        <v>360</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>22</v>
+      </c>
+      <c r="L13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>213</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>213</v>
+      </c>
+      <c r="E14">
+        <v>280</v>
+      </c>
+      <c r="G14">
+        <v>220</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>22</v>
+      </c>
+      <c r="L14">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>174</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>173</v>
+      </c>
+      <c r="E15">
+        <v>282</v>
+      </c>
+      <c r="G15">
+        <v>78</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>22</v>
+      </c>
+      <c r="L15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>212</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -4161,7 +5213,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -4193,7 +5245,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4225,7 +5277,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -4257,7 +5309,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -4289,7 +5341,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -4321,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4353,7 +5405,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4385,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4417,7 +5469,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -4449,7 +5501,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -4481,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4513,7 +5565,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4545,7 +5597,7 @@
         <v>60</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -4577,7 +5629,7 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -4609,7 +5661,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -4686,7 +5738,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -4718,7 +5770,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4750,7 +5802,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -4782,7 +5834,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -4814,7 +5866,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -4846,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4878,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4910,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4942,7 +5994,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -4974,7 +6026,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -5006,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5038,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5070,7 +6122,7 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5102,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -5134,7 +6186,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5211,7 +6263,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -5243,7 +6295,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -5275,7 +6327,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -5307,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5339,7 +6391,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -5371,7 +6423,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -5403,7 +6455,7 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5435,7 +6487,7 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -5467,7 +6519,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -5499,7 +6551,7 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -5531,7 +6583,7 @@
         <v>92</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -5563,7 +6615,7 @@
         <v>128</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -5595,7 +6647,7 @@
         <v>150</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -5627,7 +6679,7 @@
         <v>107</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -5659,7 +6711,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5727,16 +6779,16 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>50</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>299</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -5759,16 +6811,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5791,16 +6843,16 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
         <v>19</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>298</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -5823,16 +6875,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5855,16 +6907,16 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
         <v>33</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>299</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -5896,7 +6948,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5919,16 +6971,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5951,16 +7003,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5983,16 +7035,16 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
         <v>19</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>298</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -6015,7 +7067,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -6024,7 +7076,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -6047,16 +7099,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6079,16 +7131,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -6111,16 +7163,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -6143,16 +7195,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -6178,13 +7230,13 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -6261,7 +7313,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>69</v>
@@ -6293,7 +7345,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -6325,7 +7377,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>33</v>
@@ -6357,7 +7409,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>52</v>
@@ -6389,7 +7441,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>43</v>
@@ -6421,7 +7473,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6453,7 +7505,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>39</v>
@@ -6485,7 +7537,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>36</v>
@@ -6517,7 +7569,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>33</v>
@@ -6549,7 +7601,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -6581,7 +7633,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -6613,7 +7665,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -6645,7 +7697,7 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -6677,7 +7729,7 @@
         <v>19</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -6709,7 +7761,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -6777,16 +7829,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>167</v>
@@ -6818,7 +7870,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6841,16 +7893,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -6873,16 +7925,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>288</v>
@@ -6905,16 +7957,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -6946,7 +7998,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6969,16 +8021,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>216</v>
@@ -7001,16 +8053,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>271</v>
@@ -7033,16 +8085,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -7065,16 +8117,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -7106,7 +8158,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7129,16 +8181,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>360</v>
@@ -7161,16 +8213,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>220</v>
@@ -7193,16 +8245,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>78</v>
@@ -7225,16 +8277,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>212</v>
@@ -7302,16 +8354,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>167</v>
@@ -7343,7 +8395,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -7366,16 +8418,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>443</v>
@@ -7398,16 +8450,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>288</v>
@@ -7430,16 +8482,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>436</v>
@@ -7471,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7494,16 +8546,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>216</v>
@@ -7526,16 +8578,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>271</v>
@@ -7558,16 +8610,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>444</v>
@@ -7590,16 +8642,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>436</v>
@@ -7631,7 +8683,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7654,16 +8706,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>360</v>
@@ -7686,16 +8738,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>220</v>
@@ -7718,16 +8770,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>78</v>
@@ -7750,16 +8802,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>212</v>
@@ -7836,7 +8888,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -7868,7 +8920,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -7900,7 +8952,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -7932,7 +8984,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -7955,16 +9007,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -7996,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8028,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -8060,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8092,7 +9144,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -8115,16 +9167,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -8156,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8188,7 +9240,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -8220,7 +9272,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -8252,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -8284,7 +9336,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>3</v>
